--- a/Шаблоны/Scenar5.xlsx
+++ b/Шаблоны/Scenar5.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VR_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583DD4A-82D5-46AD-A146-F3AFB9B49B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="4920" windowWidth="15270" windowHeight="9203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="273">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -82,18 +80,818 @@
   </si>
   <si>
     <t>Сценарий №5 Вывод в ремонт трансформатора</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Оборудования</t>
+  </si>
+  <si>
+    <t>Тип Действия</t>
+  </si>
+  <si>
+    <t>Доп Свойство</t>
+  </si>
+  <si>
+    <t>Последовательность действий</t>
+  </si>
+  <si>
+    <t>Вид операции</t>
+  </si>
+  <si>
+    <t>Основная</t>
+  </si>
+  <si>
+    <t>Проверочная</t>
+  </si>
+  <si>
+    <t>ПОТ</t>
+  </si>
+  <si>
+    <t>Критическая</t>
+  </si>
+  <si>
+    <t>Основная операция</t>
+  </si>
+  <si>
+    <t>Критично</t>
+  </si>
+  <si>
+    <t>Проверочная операция</t>
+  </si>
+  <si>
+    <t>Нарушение ПОТ</t>
+  </si>
+  <si>
+    <t>Зафиксировать время.</t>
+  </si>
+  <si>
+    <t>На терминале горит светодиод «Срабатывание ЗДЗ СВ 6 кВ»</t>
+  </si>
+  <si>
+    <t>Выключатель В 6 Т1 отключен. Мигает зеленая сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>Сквитировать ключ В 6 Т1. Горит зелёная сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>Выключатель СВ 6 отключен. Мигает зеленая сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>Сквитировать ключ СВ 6. Горит зелёная сигнальная лампа.</t>
+  </si>
+  <si>
+    <t>Осмотреть ячейку СВ 6. На ячейке СВ 6 видны следы копоти.</t>
+  </si>
+  <si>
+    <t>Выйти, закрыть дверь на ключ.</t>
+  </si>
+  <si>
+    <t>Проверить работу видеорегистратора. Взять видеорегистратор в руки, включить его, на экране увидеть изображение, повесить на грудь.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 Т1 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение СВ 6 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления СВ 6 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>По указателю проверить отключенное положение В 6 Т1.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Т1.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку СР СВ 6 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>Проверить вкаченное положение тележки выключателя В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Включить автомат цепей управления В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Включить В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение В 6 Т2 по сигнальной лампе</t>
+  </si>
+  <si>
+    <t>По амперметру проверить наличие нагрузки на В 6 Т2</t>
+  </si>
+  <si>
+    <t>По киловольтметру ТН-2 6 проверить уровень напряжения на 2 СШ 6 кВ. Напряжение ниже 6 кВ.</t>
+  </si>
+  <si>
+    <t>Ключом управления перевести положение РПН Т2 в положение, при котором напряжение на 2 СШ 6кВ будет равно 6 кВ.</t>
+  </si>
+  <si>
+    <t>По киловольтметру ТН-2 6 кВ проверить уровень напряжения на 2 СШ 6кВ. Напряжение равно 6кВ.</t>
+  </si>
+  <si>
+    <t>Проверить целостность диэлектрических перчаток.</t>
+  </si>
+  <si>
+    <t>Надеть диэлектрические перчатки.</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Т1 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На дверь ячейки В6 Т1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления СВ 6.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления СВ 6 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку СВ 6 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку СВ 6 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 6 кВ прикосновением к токоведущим частям, заведомо находящимся под напряжением - к ошиновке 6 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле СВ 6 (в течении времени не менее 5 сек.)</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок ячейки СВ 6 №11.</t>
+  </si>
+  <si>
+    <t>Включить ЗНС СР 6.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНС СР 6.</t>
+  </si>
+  <si>
+    <t>На ячейку СВ 6 №11 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить В 6 ТСН-1.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 ТСН-1 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 ТСН-1.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 ТСН-1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 ТСН-1 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку В 6 ТСН-1 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 6 кВ с применением устройства проверки указателя напряжения 6 кВ.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле ТСН-1 (в течении времени не менее 5 сек.)</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок ТСН-1 яч.1.</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ ТСН-1 яч.1.</t>
+  </si>
+  <si>
+    <t>На ячейку ТСН-1 №1 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить В 6 Ф-516 яч.13.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Ф-516 яч.13 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Ф-516 яч.13.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Ф-516 яч.13 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Ф-516 яч.13 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку В 6 Ф-516 яч.13 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле Ф-516 яч.13 (в течении времени не менее 5 сек.)</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ Ф-516 яч.13.</t>
+  </si>
+  <si>
+    <t>На Ф-516 яч.13 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить В 6 Ф-515 яч.15.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Ф-515 яч.15 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Ф-515 яч.15.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Ф-515 яч.15 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Ф-515 яч.15 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку В 6 Ф-515 яч.15 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле Ф-515 яч.15 (в течении времени не менее 5 сек.).</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок Ф-515 яч.15.</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ Ф-515 яч.15.</t>
+  </si>
+  <si>
+    <t>На Ф-515 яч.15 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить В 6 Ф-517 яч.17.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Ф-517 яч.17 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Ф-517 яч.17.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Ф-517 яч.17 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Ф-517 яч.17 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку В 6 Ф-517 яч.17 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле Ф-517 яч.17 (в течении времени не менее 5 сек.).</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок Ф-517 яч.17.</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ Ф-517 яч.17.</t>
+  </si>
+  <si>
+    <t>На Ф-517 яч.17 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить В 6 Ф-518 яч.19.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Ф-518 яч.19 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Ф-518 яч.19.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Ф-518 яч.19 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Ф-518 яч.19 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку В 6 Ф-518 яч.19 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле Ф-518 яч.19 (в течении времени не менее 5 сек.).</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок Ф-518 яч.19.</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ Ф-518 яч.19.</t>
+  </si>
+  <si>
+    <t>На Ф-518 яч.19 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить В 6 Ф-514 яч.21.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 6 Ф-514 яч.21 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления В 6 Ф-514 яч.21.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления В 6 Ф-514 яч.21 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Ф-514 яч.21 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>На тележку В 6 Ф-514 яч.21 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на кабеле Ф-514 яч.21 (в течении времени не менее 5 сек.).</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок Ф-514 яч.21.</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ Ф-514 яч.21.</t>
+  </si>
+  <si>
+    <t>На Ф-514 яч.21 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Отключить автоматы цепей напряжения ТН-1 6.</t>
+  </si>
+  <si>
+    <t>На автоматы цепей напряжения ТН-1 6 вывесить плакаты «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Выкатить тележку ТН-1 6 в ремонтное положение.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на шинах 1СШ 6 кВ (в течении времени не менее 5 сек.).</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок ТН-1 6 яч.7.</t>
+  </si>
+  <si>
+    <t>Включить ЗНШ ТН-1 6 яч.7.</t>
+  </si>
+  <si>
+    <t>На ТН-1 6 яч.7 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Выйти, закрыть дверь РУ 6 на ключ.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ Ф-514 яч.21.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ Ф-518 яч.19.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ Ф-515 яч.15.</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок Ф-516 яч.13.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ ТСН-1 яч.1.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ Ф-516 яч.13.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНШ ТН-1 6 яч.7.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ Ф-517 яч.17</t>
+  </si>
+  <si>
+    <t>default_activate</t>
+  </si>
+  <si>
+    <t>ОПУ_Часы</t>
+  </si>
+  <si>
+    <t>ОПУ_6У_Бреслер</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В6Т1_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>switch value to</t>
+  </si>
+  <si>
+    <t>change value to</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В6Т1_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ6_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ6_Ключ</t>
+  </si>
+  <si>
+    <t>РУ6_Дверь</t>
+  </si>
+  <si>
+    <t>door interaction</t>
+  </si>
+  <si>
+    <t>ОПУ_видеорегистратор</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_Плакат_В6Т1</t>
+  </si>
+  <si>
+    <t>put a sign</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Плакат_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_яч9_Автомат_В6Т1</t>
+  </si>
+  <si>
+    <t>roll out</t>
+  </si>
+  <si>
+    <t>РУ6_яч16_Тележка_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_Автомат_В6Т2</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_В6Т2</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_В6Т2_КраснаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_Амперметр_В6Т2</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Киловольтметр_2СШ6кВ</t>
+  </si>
+  <si>
+    <t>check voltage</t>
+  </si>
+  <si>
+    <t>сheck integrity</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>РУ6_яч9_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч9_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Автомат_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Плакат_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>put a block</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Ключ_В6ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Плакат_В6ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_В6ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Тележка_В6ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_ТСН-1яч1</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Ф-516яч13</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Ключ_В6Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Ключ_В6Ф517</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_1СШ6кВ</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_Тележка_ТН-1-6</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_Плакат_ТН-1-6</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_Автомат_ТН-1-6</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Ключ_В6Ф-518</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Плакат_В6Ф-518</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Автомат_В6Ф-518</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Плакат_Ф-514</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Ф-514</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Ключ_В6Ф-615</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Плакат_В6Ф-615</t>
+  </si>
+  <si>
+    <t>РУ6_яч7_ТН-1-6</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Плакат_В6Ф-514</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Тележка_В6Ф-514</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Автомат_В6Ф-514</t>
+  </si>
+  <si>
+    <t>РУ6_яч21_Ключ_В6Ф-514</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Плакат_Ф-518</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Ф-518</t>
+  </si>
+  <si>
+    <t>РУ6_яч19_Тележка_В6Ф-518</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Плакат_Ф-517</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Ф-517</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Плакат_В6Ф-517</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Тележка_В6Ф517</t>
+  </si>
+  <si>
+    <t>РУ6_яч17_Автомат_Ф517</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Плакат_Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Плакат_В6Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Тележка_В6Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Автомат_В6Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч15_Плакат_В5Ф-515</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_В6Ф-615</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Тележка_В6Ф-615</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Автомат_В6Ф-615</t>
+  </si>
+  <si>
+    <t>РУ6_ яч16_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_9_Указатель_В6Т1</t>
+  </si>
+  <si>
+    <t>РУ6_яч9_Автомат_Плакат_В6Т1</t>
+  </si>
+  <si>
+    <t>Проверить выведенное состояние АВР 6 кВ</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_АВР_6</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>Проверить диэлектрические перчатки на целостность.</t>
+  </si>
+  <si>
+    <t>Надеть перчатки.</t>
+  </si>
+  <si>
+    <t>На тележку СР СВ 6 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>РУ6_яч16_Тележка_Плакат_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_Указатель_В6Т2</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Ключ_РПНТ2</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка9_Тележка</t>
+  </si>
+  <si>
+    <t>РУ6_9_Плакат_В6Т1</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейка11_Тележка</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Кабель_СВ6</t>
+  </si>
+  <si>
+    <t>РУ6_6кВ_2секция</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_СР6_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_ЗНС_СР6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +914,41 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,15 +972,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,21 +1302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="4" width="13.53125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,16 +1324,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -485,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -504,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -515,7 +1390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -529,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -544,25 +1419,3092 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7E95B-9464-4CBF-82F3-843C20175B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6E063E-1CE8-43A5-BBBA-30AA7E29F73F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>271</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
+        <v>97</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>98</v>
+      </c>
+      <c r="C102" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>99</v>
+      </c>
+      <c r="C103" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
+        <v>100</v>
+      </c>
+      <c r="C104" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
+        <v>101</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13">
+        <v>105</v>
+      </c>
+      <c r="C109" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13">
+        <v>106</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="13">
+        <v>107</v>
+      </c>
+      <c r="C111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
+        <v>112</v>
+      </c>
+      <c r="C116" t="s">
+        <v>216</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="13">
+        <v>114</v>
+      </c>
+      <c r="C118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13">
+        <v>115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
+        <v>116</v>
+      </c>
+      <c r="C120" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>117</v>
+      </c>
+      <c r="C121" t="s">
+        <v>240</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>118</v>
+      </c>
+      <c r="C122" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>239</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>120</v>
+      </c>
+      <c r="C124" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
+        <v>121</v>
+      </c>
+      <c r="C125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="13">
+        <v>124</v>
+      </c>
+      <c r="C128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>202</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
+        <v>127</v>
+      </c>
+      <c r="C131" t="s">
+        <v>223</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="13">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="13">
+        <v>129</v>
+      </c>
+      <c r="C133" t="s">
+        <v>202</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
+        <v>130</v>
+      </c>
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
+        <v>131</v>
+      </c>
+      <c r="C135" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
+        <v>132</v>
+      </c>
+      <c r="C136" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13">
+        <v>133</v>
+      </c>
+      <c r="C137" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="13">
+        <v>134</v>
+      </c>
+      <c r="C138" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="13">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="13">
+        <v>136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>237</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="13">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
+        <v>236</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="13">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="13">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="13">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
+        <v>234</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="13">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="13">
+        <v>142</v>
+      </c>
+      <c r="C146" t="s">
+        <v>197</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13">
+        <v>143</v>
+      </c>
+      <c r="C147" t="s">
+        <v>203</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="13">
+        <v>144</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="13">
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
+        <v>232</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="13">
+        <v>146</v>
+      </c>
+      <c r="C150" t="s">
+        <v>197</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13">
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
+        <v>203</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="13">
+        <v>148</v>
+      </c>
+      <c r="C152" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>228</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="13">
+        <v>150</v>
+      </c>
+      <c r="C154" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
+        <v>151</v>
+      </c>
+      <c r="C155" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="13">
+        <v>152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>212</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="13">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
+        <v>228</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="13">
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
+        <v>228</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="13">
+        <v>155</v>
+      </c>
+      <c r="C159" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="13">
+        <v>156</v>
+      </c>
+      <c r="C160" t="s">
+        <v>221</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>220</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="13">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
+        <v>198</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>204</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="13">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>219</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13">
+        <v>161</v>
+      </c>
+      <c r="C165" t="s">
+        <v>198</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>204</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="13">
+        <v>163</v>
+      </c>
+      <c r="C167" t="s">
+        <v>217</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="13">
+        <v>164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>218</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="13">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>198</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="13">
+        <v>166</v>
+      </c>
+      <c r="C170" t="s">
+        <v>204</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="13">
+        <v>167</v>
+      </c>
+      <c r="C171" t="s">
+        <v>213</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="13">
+        <v>168</v>
+      </c>
+      <c r="C172" t="s">
+        <v>231</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="13">
+        <v>169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>231</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="13">
+        <v>170</v>
+      </c>
+      <c r="C174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="13">
+        <v>171</v>
+      </c>
+      <c r="C175" t="s">
+        <v>156</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Шаблоны/Scenar5.xlsx
+++ b/Шаблоны/Scenar5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -202,12 +202,6 @@
     <t>По киловольтметру ТН-2 6 кВ проверить уровень напряжения на 2 СШ 6кВ. Напряжение равно 6кВ.</t>
   </si>
   <si>
-    <t>Проверить целостность диэлектрических перчаток.</t>
-  </si>
-  <si>
-    <t>Надеть диэлектрические перчатки.</t>
-  </si>
-  <si>
     <t>Выкатить тележку В 6 Т1 в ремонтное положение.</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>door interaction</t>
   </si>
   <si>
-    <t>ОПУ_видеорегистратор</t>
-  </si>
-  <si>
     <t>ОПУ_2У_Плакат_В6Т1</t>
   </si>
   <si>
@@ -550,30 +541,12 @@
     <t>put on</t>
   </si>
   <si>
-    <t>РУ6_яч9_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч9_Перчатки_Надеть</t>
-  </si>
-  <si>
     <t>РУ6_яч11_Автомат_СВ6</t>
   </si>
   <si>
     <t>РУ6_яч11_Плакат_СВ6</t>
   </si>
   <si>
-    <t>РУ6_яч11_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч11_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_Перчатки_Надеть</t>
-  </si>
-  <si>
     <t>РУ6_яч11_БлокировочныйКлюч</t>
   </si>
   <si>
@@ -589,12 +562,6 @@
     <t>РУ6_яч1_В6ТСН-1</t>
   </si>
   <si>
-    <t>РУ6_яч1_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч1_Перчатки_Надеть</t>
-  </si>
-  <si>
     <t>РУ6_яч1_Тележка_В6ТСН-1</t>
   </si>
   <si>
@@ -610,42 +577,6 @@
     <t>РУ6_яч1_ТСН-1яч1</t>
   </si>
   <si>
-    <t>РУ6_яч13_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч15_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч17_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч19_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч21_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч7_Перчатки_Проверить</t>
-  </si>
-  <si>
-    <t>РУ6_яч13_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_яч15_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_яч17_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_яч19_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_яч21_Перчатки_Надеть</t>
-  </si>
-  <si>
-    <t>РУ6_яч7_Перчатки_Надеть</t>
-  </si>
-  <si>
     <t>РУ6_яч13_Указатель</t>
   </si>
   <si>
@@ -848,26 +779,21 @@
   </si>
   <si>
     <t>РУ6_яч11_ЗНС_СР6</t>
+  </si>
+  <si>
+    <t>ОПУ_Видеорегистратор</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -972,56 +898,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,7 +1235,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45474</v>
+        <v>45526</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>32</v>
@@ -1506,10 +1411,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>33</v>
@@ -1523,10 +1428,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1543,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1563,10 +1468,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="15" t="s">
         <v>152</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1583,10 +1488,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>37</v>
@@ -1601,10 +1506,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>147</v>
+        <v>230</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>38</v>
@@ -1618,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>39</v>
@@ -1635,10 +1540,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>147</v>
+        <v>250</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>40</v>
@@ -1652,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1672,10 +1577,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>42</v>
@@ -1689,10 +1594,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="15" t="s">
         <v>152</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1709,10 +1614,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>44</v>
@@ -1727,14 +1632,14 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>147</v>
+        <v>234</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="19" t="s">
-        <v>256</v>
+      <c r="F15" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
@@ -1745,10 +1650,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>152</v>
+        <v>231</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1765,10 +1670,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1780,15 +1685,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>160</v>
+        <v>232</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>47</v>
@@ -1797,39 +1702,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>171</v>
+        <v>235</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>172</v>
+        <v>236</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="E20" s="13">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -1840,10 +1745,10 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>48</v>
@@ -1856,14 +1761,14 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>160</v>
+        <v>240</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="19" t="s">
-        <v>262</v>
+      <c r="F22" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -1874,10 +1779,10 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>152</v>
+        <v>241</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1894,10 +1799,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1914,10 +1819,10 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>151</v>
+        <v>163</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1934,10 +1839,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1954,10 +1859,10 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>53</v>
@@ -1971,10 +1876,10 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1991,10 +1896,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>151</v>
+        <v>242</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2011,10 +1916,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2026,15 +1931,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>152</v>
+        <v>231</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2046,35 +1951,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>171</v>
+      <c r="C32" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>172</v>
+      <c r="C33" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>31</v>
@@ -2085,13 +1996,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>29</v>
@@ -2102,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>160</v>
+        <v>244</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>31</v>
@@ -2119,67 +2030,73 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>151</v>
+        <v>170</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>160</v>
+        <v>171</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>171</v>
+      <c r="C38" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="13">
+        <v>3</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>172</v>
+      <c r="C39" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="13">
+        <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>31</v>
@@ -2190,64 +2107,70 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>160</v>
+        <v>171</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>38</v>
       </c>
-      <c r="C42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>171</v>
+      <c r="C42" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="13">
+        <v>4</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>39</v>
       </c>
-      <c r="C43" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>172</v>
+      <c r="C43" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="13">
+        <v>4</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>31</v>
@@ -2258,64 +2181,70 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>170</v>
+        <v>247</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>170</v>
+        <v>246</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>42</v>
       </c>
-      <c r="C46" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>171</v>
+      <c r="C46" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="13">
+        <v>5</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>43</v>
       </c>
-      <c r="C47" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>172</v>
+      <c r="C47" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="13">
+        <v>5</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>31</v>
@@ -2326,13 +2255,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>29</v>
@@ -2343,16 +2272,16 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>151</v>
+        <v>249</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>29</v>
@@ -2363,16 +2292,16 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>152</v>
+        <v>248</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>30</v>
@@ -2383,13 +2312,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>160</v>
+        <v>171</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>31</v>
@@ -2400,13 +2329,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>29</v>
@@ -2417,13 +2346,13 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>31</v>
@@ -2434,64 +2363,70 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>151</v>
+        <v>176</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>171</v>
+      <c r="C56" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="13">
+        <v>6</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>172</v>
+      <c r="C57" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="13">
+        <v>6</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -2502,64 +2437,70 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>56</v>
       </c>
-      <c r="C60" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>171</v>
+      <c r="C60" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="13">
+        <v>7</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>57</v>
       </c>
-      <c r="C61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>172</v>
+      <c r="C61" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="13">
+        <v>7</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>31</v>
@@ -2570,64 +2511,70 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>60</v>
       </c>
-      <c r="C64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>171</v>
+      <c r="C64" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="13">
+        <v>8</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>61</v>
       </c>
-      <c r="C65" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>172</v>
+      <c r="C65" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="13">
+        <v>8</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>31</v>
@@ -2638,13 +2585,13 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>29</v>
@@ -2655,13 +2602,13 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>151</v>
+        <v>181</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>31</v>
@@ -2672,13 +2619,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>152</v>
+        <v>181</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>30</v>
@@ -2689,13 +2636,13 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>31</v>
@@ -2706,13 +2653,13 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>151</v>
+        <v>206</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>29</v>
@@ -2723,13 +2670,13 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>160</v>
+        <v>207</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>31</v>
@@ -2740,64 +2687,70 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>151</v>
+        <v>229</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>160</v>
+        <v>207</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>70</v>
       </c>
-      <c r="C74" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>171</v>
+      <c r="C74" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="13">
+        <v>9</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>71</v>
       </c>
-      <c r="C75" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>172</v>
+      <c r="C75" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="13">
+        <v>9</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>31</v>
@@ -2808,64 +2761,70 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>160</v>
+        <v>207</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>74</v>
       </c>
-      <c r="C78" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>171</v>
+      <c r="C78" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="13">
+        <v>10</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>75</v>
       </c>
-      <c r="C79" t="s">
-        <v>199</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>172</v>
+      <c r="C79" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="13">
+        <v>10</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>31</v>
@@ -2876,64 +2835,70 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>78</v>
       </c>
-      <c r="C82" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>171</v>
+      <c r="C82" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="13">
+        <v>11</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>79</v>
       </c>
-      <c r="C83" t="s">
-        <v>199</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>172</v>
+      <c r="C83" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="13">
+        <v>11</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>31</v>
@@ -2944,13 +2909,13 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>29</v>
@@ -2961,13 +2926,13 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>151</v>
+        <v>184</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>31</v>
@@ -2978,13 +2943,13 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>152</v>
+        <v>184</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>30</v>
@@ -2995,13 +2960,13 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>160</v>
+        <v>184</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>31</v>
@@ -3012,13 +2977,13 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>151</v>
+        <v>185</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>29</v>
@@ -3029,13 +2994,13 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>160</v>
+        <v>226</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>31</v>
@@ -3046,64 +3011,70 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>151</v>
+        <v>225</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>246</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>160</v>
+        <v>223</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>88</v>
       </c>
-      <c r="C92" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>171</v>
+      <c r="C92" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="13">
+        <v>12</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>89</v>
       </c>
-      <c r="C93" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>172</v>
+      <c r="C93" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="13">
+        <v>12</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>31</v>
@@ -3114,64 +3085,70 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>160</v>
+        <v>223</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>92</v>
       </c>
-      <c r="C96" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>171</v>
+      <c r="C96" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E96" s="13">
+        <v>13</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>93</v>
       </c>
-      <c r="C97" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>172</v>
+      <c r="C97" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E97" s="13">
+        <v>13</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>31</v>
@@ -3182,64 +3159,70 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>96</v>
       </c>
-      <c r="C100" t="s">
-        <v>194</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>171</v>
+      <c r="C100" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="13">
+        <v>14</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>97</v>
       </c>
-      <c r="C101" t="s">
-        <v>200</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>172</v>
+      <c r="C101" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="13">
+        <v>14</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>31</v>
@@ -3250,13 +3233,13 @@
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>29</v>
@@ -3267,13 +3250,13 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>151</v>
+        <v>222</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>31</v>
@@ -3284,13 +3267,13 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>152</v>
+        <v>222</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>30</v>
@@ -3301,13 +3284,13 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>160</v>
+        <v>221</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>31</v>
@@ -3318,13 +3301,13 @@
         <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>151</v>
+        <v>192</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>29</v>
@@ -3335,13 +3318,13 @@
         <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>160</v>
+        <v>218</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>31</v>
@@ -3352,64 +3335,70 @@
         <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>151</v>
+        <v>220</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>160</v>
+        <v>218</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>106</v>
       </c>
-      <c r="C110" t="s">
-        <v>195</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>171</v>
+      <c r="C110" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" s="13">
+        <v>15</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>107</v>
       </c>
-      <c r="C111" t="s">
-        <v>201</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>172</v>
+      <c r="C111" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="13">
+        <v>15</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>31</v>
@@ -3420,64 +3409,70 @@
         <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>160</v>
+        <v>218</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>110</v>
       </c>
-      <c r="C114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>171</v>
+      <c r="C114" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="13">
+        <v>16</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>111</v>
       </c>
-      <c r="C115" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>172</v>
+      <c r="C115" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="13">
+        <v>16</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>31</v>
@@ -3488,64 +3483,70 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>114</v>
       </c>
-      <c r="C118" t="s">
-        <v>195</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>171</v>
+      <c r="C118" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="13">
+        <v>17</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>115</v>
       </c>
-      <c r="C119" t="s">
-        <v>201</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>172</v>
+      <c r="C119" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E119" s="13">
+        <v>17</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>31</v>
@@ -3556,13 +3557,13 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>29</v>
@@ -3573,13 +3574,13 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>151</v>
+        <v>217</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>31</v>
@@ -3590,13 +3591,13 @@
         <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>152</v>
+        <v>217</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>30</v>
@@ -3607,13 +3608,13 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>239</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>160</v>
+        <v>216</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>31</v>
@@ -3624,13 +3625,13 @@
         <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>151</v>
+        <v>199</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>29</v>
@@ -3641,13 +3642,13 @@
         <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>160</v>
+        <v>200</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>31</v>
@@ -3658,64 +3659,70 @@
         <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>224</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>151</v>
+        <v>201</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>160</v>
+        <v>200</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>124</v>
       </c>
-      <c r="C128" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>171</v>
+      <c r="C128" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="13">
+        <v>18</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>125</v>
       </c>
-      <c r="C129" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>172</v>
+      <c r="C129" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="13">
+        <v>18</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>31</v>
@@ -3726,64 +3733,70 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
         <v>127</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>160</v>
+        <v>200</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
         <v>128</v>
       </c>
-      <c r="C132" t="s">
-        <v>196</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>171</v>
+      <c r="C132" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" s="13">
+        <v>19</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>129</v>
       </c>
-      <c r="C133" t="s">
-        <v>202</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>172</v>
+      <c r="C133" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" s="13">
+        <v>19</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>31</v>
@@ -3794,64 +3807,70 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
         <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>132</v>
       </c>
-      <c r="C136" t="s">
-        <v>196</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>171</v>
+      <c r="C136" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="13">
+        <v>20</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>133</v>
       </c>
-      <c r="C137" t="s">
-        <v>202</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>172</v>
+      <c r="C137" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" s="13">
+        <v>20</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>31</v>
@@ -3862,13 +3881,13 @@
         <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>29</v>
@@ -3879,13 +3898,13 @@
         <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>151</v>
+        <v>214</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>31</v>
@@ -3896,13 +3915,13 @@
         <v>136</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>152</v>
+        <v>214</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>30</v>
@@ -3913,13 +3932,13 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>160</v>
+        <v>213</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>31</v>
@@ -3930,13 +3949,13 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>151</v>
+        <v>212</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>29</v>
@@ -3947,13 +3966,13 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>232</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>160</v>
+        <v>209</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>31</v>
@@ -3964,64 +3983,70 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>151</v>
+        <v>211</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>232</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>160</v>
+        <v>209</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
         <v>142</v>
       </c>
-      <c r="C146" t="s">
-        <v>197</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>171</v>
+      <c r="C146" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" s="13">
+        <v>21</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>143</v>
       </c>
-      <c r="C147" t="s">
-        <v>203</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>172</v>
+      <c r="C147" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" s="13">
+        <v>21</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>31</v>
@@ -4032,64 +4057,70 @@
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
         <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>232</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>160</v>
+        <v>209</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
         <v>146</v>
       </c>
-      <c r="C150" t="s">
-        <v>197</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>171</v>
+      <c r="C150" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E150" s="13">
+        <v>22</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
         <v>147</v>
       </c>
-      <c r="C151" t="s">
-        <v>203</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>172</v>
+      <c r="C151" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" s="13">
+        <v>22</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>31</v>
@@ -4100,64 +4131,70 @@
         <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>150</v>
       </c>
-      <c r="C154" t="s">
-        <v>197</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>171</v>
+      <c r="C154" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" s="13">
+        <v>23</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>151</v>
       </c>
-      <c r="C155" t="s">
-        <v>203</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>172</v>
+      <c r="C155" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E155" s="13">
+        <v>23</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>31</v>
@@ -4168,13 +4205,13 @@
         <v>152</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>182</v>
+        <v>189</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>29</v>
@@ -4185,13 +4222,13 @@
         <v>153</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>151</v>
+        <v>205</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>31</v>
@@ -4202,13 +4239,13 @@
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>152</v>
+        <v>205</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>30</v>
@@ -4219,13 +4256,13 @@
         <v>155</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>160</v>
+        <v>204</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>31</v>
@@ -4236,115 +4273,127 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>221</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>151</v>
+        <v>198</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>160</v>
+        <v>197</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
         <v>158</v>
       </c>
-      <c r="C162" t="s">
-        <v>198</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>171</v>
+      <c r="C162" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" s="13">
+        <v>24</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>159</v>
       </c>
-      <c r="C163" t="s">
-        <v>204</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>172</v>
+      <c r="C163" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E163" s="13">
+        <v>24</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>219</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
         <v>161</v>
       </c>
-      <c r="C165" t="s">
-        <v>198</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>171</v>
+      <c r="C165" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E165" s="13">
+        <v>25</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>162</v>
       </c>
-      <c r="C166" t="s">
-        <v>204</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>172</v>
+      <c r="C166" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E166" s="13">
+        <v>25</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>31</v>
@@ -4355,64 +4404,70 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>217</v>
-      </c>
-      <c r="D167" s="18" t="s">
-        <v>170</v>
+        <v>194</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>218</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>170</v>
+        <v>195</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>165</v>
       </c>
-      <c r="C169" t="s">
-        <v>198</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>171</v>
+      <c r="C169" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E169" s="13">
+        <v>26</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
         <v>166</v>
       </c>
-      <c r="C170" t="s">
-        <v>204</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>172</v>
+      <c r="C170" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E170" s="13">
+        <v>26</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>31</v>
@@ -4423,13 +4478,13 @@
         <v>167</v>
       </c>
       <c r="C171" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>29</v>
@@ -4440,13 +4495,13 @@
         <v>168</v>
       </c>
       <c r="C172" t="s">
-        <v>231</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>151</v>
+        <v>208</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>31</v>
@@ -4457,13 +4512,13 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>231</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>152</v>
+        <v>208</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>30</v>
@@ -4474,13 +4529,13 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>220</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>160</v>
+        <v>197</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G174" s="7" t="s">
         <v>31</v>
@@ -4491,13 +4546,13 @@
         <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>156</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>31</v>

--- a/Шаблоны/Scenar5.xlsx
+++ b/Шаблоны/Scenar5.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="255">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -559,24 +559,15 @@
     <t>РУ6_яч1_Плакат_В6ТСН-1</t>
   </si>
   <si>
-    <t>РУ6_яч1_В6ТСН-1</t>
-  </si>
-  <si>
     <t>РУ6_яч1_Тележка_В6ТСН-1</t>
   </si>
   <si>
-    <t>РУ6_яч1_Указатель</t>
-  </si>
-  <si>
     <t>РУ6_яч1_ТСН-1</t>
   </si>
   <si>
     <t>РУ6_яч1_БлокировочныйКлюч</t>
   </si>
   <si>
-    <t>РУ6_яч1_ТСН-1яч1</t>
-  </si>
-  <si>
     <t>РУ6_яч13_Указатель</t>
   </si>
   <si>
@@ -775,20 +766,41 @@
     <t>РУ6_6кВ_2секция</t>
   </si>
   <si>
-    <t>РУ6_яч11_СР6_Указатель</t>
-  </si>
-  <si>
     <t>РУ6_яч11_ЗНС_СР6</t>
   </si>
   <si>
     <t>ОПУ_Видеорегистратор</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_ЗНС_СР6_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Плакат_СВ6_Заземлено</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Автомат_В6ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Плакат_Автомат_В6ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Указатель_6кВ</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Кабель_ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_ЗНЛ_ТСН-1</t>
+  </si>
+  <si>
+    <t>РУ6_яч1_Плакат_В6ТСН-1_Заземлено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +887,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -902,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -928,6 +947,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1235,7 +1255,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45526</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,12 +1359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -1506,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>145</v>
@@ -1540,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>145</v>
@@ -1632,14 +1653,14 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>145</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
@@ -1650,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>150</v>
@@ -1690,7 +1711,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>157</v>
@@ -1706,7 +1727,7 @@
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>168</v>
@@ -1715,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>31</v>
@@ -1725,7 +1746,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>169</v>
@@ -1734,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -1761,14 +1782,14 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -1779,7 +1800,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>150</v>
@@ -1896,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>149</v>
@@ -1936,7 +1957,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>150</v>
@@ -1956,7 +1977,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>168</v>
@@ -1965,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>31</v>
@@ -1976,7 +1997,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>169</v>
@@ -1985,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>31</v>
@@ -1996,7 +2017,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>160</v>
@@ -2013,7 +2034,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>157</v>
@@ -2067,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>168</v>
@@ -2076,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
@@ -2087,7 +2108,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>169</v>
@@ -2096,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>31</v>
@@ -2107,7 +2128,7 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>160</v>
@@ -2141,7 +2162,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>168</v>
@@ -2150,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>31</v>
@@ -2161,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>169</v>
@@ -2170,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>31</v>
@@ -2181,7 +2202,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>167</v>
@@ -2198,7 +2219,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>167</v>
@@ -2215,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>168</v>
@@ -2224,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>31</v>
@@ -2235,7 +2256,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>169</v>
@@ -2244,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>31</v>
@@ -2272,7 +2293,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>149</v>
@@ -2292,7 +2313,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>150</v>
@@ -2312,7 +2333,7 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>157</v>
@@ -2334,6 +2355,9 @@
       <c r="D52" s="14" t="s">
         <v>149</v>
       </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
       <c r="F52" s="8" t="s">
         <v>69</v>
       </c>
@@ -2363,10 +2387,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>149</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>71</v>
@@ -2380,7 +2407,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>157</v>
@@ -2397,7 +2424,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>168</v>
@@ -2406,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>31</v>
@@ -2417,7 +2444,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>169</v>
@@ -2426,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -2437,7 +2464,7 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>160</v>
@@ -2471,7 +2498,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>168</v>
@@ -2480,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>31</v>
@@ -2491,7 +2518,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>169</v>
@@ -2500,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>31</v>
@@ -2511,10 +2538,13 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>167</v>
+        <v>251</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>75</v>
@@ -2528,7 +2558,7 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>167</v>
@@ -2545,7 +2575,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>168</v>
@@ -2554,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>31</v>
@@ -2565,7 +2595,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>169</v>
@@ -2574,7 +2604,7 @@
         <v>8</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>31</v>
@@ -2585,7 +2615,7 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>173</v>
@@ -2602,10 +2632,13 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>149</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>78</v>
@@ -2619,10 +2652,13 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>150</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>141</v>
@@ -2636,7 +2672,7 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>157</v>
@@ -2652,8 +2688,8 @@
       <c r="A70" s="13">
         <v>66</v>
       </c>
-      <c r="C70" t="s">
-        <v>206</v>
+      <c r="C70" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>149</v>
@@ -2670,7 +2706,7 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>157</v>
@@ -2687,10 +2723,13 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>149</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>82</v>
@@ -2704,7 +2743,7 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>157</v>
@@ -2721,7 +2760,7 @@
         <v>70</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>168</v>
@@ -2730,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>31</v>
@@ -2741,7 +2780,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>169</v>
@@ -2750,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>31</v>
@@ -2761,7 +2800,7 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>160</v>
@@ -2778,7 +2817,7 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>157</v>
@@ -2795,7 +2834,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>168</v>
@@ -2804,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>31</v>
@@ -2815,7 +2854,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>169</v>
@@ -2824,7 +2863,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>31</v>
@@ -2835,7 +2874,7 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>167</v>
@@ -2852,7 +2891,7 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>167</v>
@@ -2869,7 +2908,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>168</v>
@@ -2878,7 +2917,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>31</v>
@@ -2889,7 +2928,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>169</v>
@@ -2898,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>31</v>
@@ -2909,7 +2948,7 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>173</v>
@@ -2926,7 +2965,7 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>149</v>
@@ -2943,7 +2982,7 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>150</v>
@@ -2960,7 +2999,7 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>157</v>
@@ -2977,7 +3016,7 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>149</v>
@@ -2994,7 +3033,7 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>157</v>
@@ -3011,7 +3050,7 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>149</v>
@@ -3028,7 +3067,7 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>157</v>
@@ -3045,7 +3084,7 @@
         <v>88</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>168</v>
@@ -3054,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>31</v>
@@ -3065,7 +3104,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>169</v>
@@ -3074,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>31</v>
@@ -3085,7 +3124,7 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>160</v>
@@ -3102,7 +3141,7 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>157</v>
@@ -3119,7 +3158,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>168</v>
@@ -3128,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>31</v>
@@ -3139,7 +3178,7 @@
         <v>93</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>169</v>
@@ -3148,7 +3187,7 @@
         <v>13</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>31</v>
@@ -3159,7 +3198,7 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>167</v>
@@ -3176,7 +3215,7 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>167</v>
@@ -3193,7 +3232,7 @@
         <v>96</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>168</v>
@@ -3202,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>31</v>
@@ -3213,7 +3252,7 @@
         <v>97</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>169</v>
@@ -3222,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>31</v>
@@ -3233,7 +3272,7 @@
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>173</v>
@@ -3250,7 +3289,7 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>149</v>
@@ -3267,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>150</v>
@@ -3284,7 +3323,7 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>157</v>
@@ -3301,7 +3340,7 @@
         <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>149</v>
@@ -3318,7 +3357,7 @@
         <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>157</v>
@@ -3335,7 +3374,7 @@
         <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>149</v>
@@ -3352,7 +3391,7 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>157</v>
@@ -3369,7 +3408,7 @@
         <v>106</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>168</v>
@@ -3378,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>31</v>
@@ -3389,7 +3428,7 @@
         <v>107</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>169</v>
@@ -3398,7 +3437,7 @@
         <v>15</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>31</v>
@@ -3409,7 +3448,7 @@
         <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>160</v>
@@ -3426,7 +3465,7 @@
         <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>157</v>
@@ -3443,7 +3482,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>168</v>
@@ -3452,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>31</v>
@@ -3463,7 +3502,7 @@
         <v>111</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>169</v>
@@ -3472,7 +3511,7 @@
         <v>16</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>31</v>
@@ -3483,7 +3522,7 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>167</v>
@@ -3500,7 +3539,7 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>167</v>
@@ -3517,7 +3556,7 @@
         <v>114</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>168</v>
@@ -3526,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>31</v>
@@ -3537,7 +3576,7 @@
         <v>115</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>169</v>
@@ -3546,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>31</v>
@@ -3557,7 +3596,7 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>173</v>
@@ -3574,7 +3613,7 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>149</v>
@@ -3591,7 +3630,7 @@
         <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>150</v>
@@ -3608,7 +3647,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>157</v>
@@ -3625,7 +3664,7 @@
         <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>149</v>
@@ -3642,7 +3681,7 @@
         <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>157</v>
@@ -3659,7 +3698,7 @@
         <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>149</v>
@@ -3676,7 +3715,7 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>157</v>
@@ -3693,7 +3732,7 @@
         <v>124</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>168</v>
@@ -3702,7 +3741,7 @@
         <v>18</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>31</v>
@@ -3713,7 +3752,7 @@
         <v>125</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>169</v>
@@ -3722,7 +3761,7 @@
         <v>18</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>31</v>
@@ -3733,7 +3772,7 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>160</v>
@@ -3750,7 +3789,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>157</v>
@@ -3767,7 +3806,7 @@
         <v>128</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>168</v>
@@ -3776,7 +3815,7 @@
         <v>19</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>31</v>
@@ -3787,7 +3826,7 @@
         <v>129</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>169</v>
@@ -3796,7 +3835,7 @@
         <v>19</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>31</v>
@@ -3807,7 +3846,7 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>167</v>
@@ -3824,7 +3863,7 @@
         <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>167</v>
@@ -3841,7 +3880,7 @@
         <v>132</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>168</v>
@@ -3850,7 +3889,7 @@
         <v>20</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>31</v>
@@ -3861,7 +3900,7 @@
         <v>133</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>169</v>
@@ -3870,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>31</v>
@@ -3881,7 +3920,7 @@
         <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>173</v>
@@ -3898,7 +3937,7 @@
         <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>149</v>
@@ -3915,7 +3954,7 @@
         <v>136</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>150</v>
@@ -3932,7 +3971,7 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>157</v>
@@ -3949,7 +3988,7 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>149</v>
@@ -3966,7 +4005,7 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>157</v>
@@ -3983,7 +4022,7 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>149</v>
@@ -4000,7 +4039,7 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>157</v>
@@ -4017,7 +4056,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>168</v>
@@ -4026,7 +4065,7 @@
         <v>21</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>31</v>
@@ -4037,7 +4076,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>169</v>
@@ -4046,7 +4085,7 @@
         <v>21</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>31</v>
@@ -4057,7 +4096,7 @@
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>160</v>
@@ -4074,7 +4113,7 @@
         <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D149" s="14" t="s">
         <v>157</v>
@@ -4091,7 +4130,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>168</v>
@@ -4100,7 +4139,7 @@
         <v>22</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>31</v>
@@ -4111,7 +4150,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>169</v>
@@ -4120,7 +4159,7 @@
         <v>22</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>31</v>
@@ -4131,7 +4170,7 @@
         <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>167</v>
@@ -4148,7 +4187,7 @@
         <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>167</v>
@@ -4165,7 +4204,7 @@
         <v>150</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>168</v>
@@ -4174,7 +4213,7 @@
         <v>23</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>31</v>
@@ -4185,7 +4224,7 @@
         <v>151</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>169</v>
@@ -4194,7 +4233,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>31</v>
@@ -4205,7 +4244,7 @@
         <v>152</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>173</v>
@@ -4222,7 +4261,7 @@
         <v>153</v>
       </c>
       <c r="C157" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>149</v>
@@ -4239,7 +4278,7 @@
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>150</v>
@@ -4256,7 +4295,7 @@
         <v>155</v>
       </c>
       <c r="C159" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>157</v>
@@ -4273,7 +4312,7 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>149</v>
@@ -4290,7 +4329,7 @@
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>157</v>
@@ -4307,7 +4346,7 @@
         <v>158</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>168</v>
@@ -4316,7 +4355,7 @@
         <v>24</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>31</v>
@@ -4327,7 +4366,7 @@
         <v>159</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>169</v>
@@ -4336,7 +4375,7 @@
         <v>24</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>31</v>
@@ -4347,7 +4386,7 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>160</v>
@@ -4364,7 +4403,7 @@
         <v>161</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D165" s="13" t="s">
         <v>168</v>
@@ -4373,7 +4412,7 @@
         <v>25</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>31</v>
@@ -4384,7 +4423,7 @@
         <v>162</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D166" s="13" t="s">
         <v>169</v>
@@ -4393,7 +4432,7 @@
         <v>25</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>31</v>
@@ -4404,7 +4443,7 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>167</v>
@@ -4421,7 +4460,7 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>167</v>
@@ -4438,7 +4477,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D169" s="13" t="s">
         <v>168</v>
@@ -4447,7 +4486,7 @@
         <v>26</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>31</v>
@@ -4458,7 +4497,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>169</v>
@@ -4467,7 +4506,7 @@
         <v>26</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>31</v>
@@ -4478,7 +4517,7 @@
         <v>167</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>173</v>
@@ -4495,7 +4534,7 @@
         <v>168</v>
       </c>
       <c r="C172" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>149</v>
@@ -4512,7 +4551,7 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>150</v>
@@ -4529,7 +4568,7 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D174" s="14" t="s">
         <v>157</v>

--- a/Шаблоны/Scenar5.xlsx
+++ b/Шаблоны/Scenar5.xlsx
@@ -800,7 +800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,13 +887,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -947,7 +940,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1255,7 +1248,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45538</v>
+        <v>45552</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,6 +2687,9 @@
       <c r="D70" s="14" t="s">
         <v>149</v>
       </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
       <c r="F70" s="8" t="s">
         <v>80</v>
       </c>

--- a/Шаблоны/Scenar5.xlsx
+++ b/Шаблоны/Scenar5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -800,6 +800,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -914,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -941,6 +944,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45552</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1338,12 +1342,427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120:B135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="20"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="20"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="20"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="20"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="20"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="20"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="20"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="20"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="20"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="20"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="20"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="20"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="20"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="20"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="20"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="20"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="20"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="20"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="20"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="20"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="20"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="20"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="20"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="20"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="20"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="20"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="20"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="20"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="20"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="20"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="20"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="20"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="20"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="20"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="20"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="20"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="20"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="20"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="20"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="20"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="20"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="20"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="20"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="20"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="20"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1352,7 +1771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>

--- a/Шаблоны/Scenar5.xlsx
+++ b/Шаблоны/Scenar5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -568,15 +568,9 @@
     <t>РУ6_яч1_БлокировочныйКлюч</t>
   </si>
   <si>
-    <t>РУ6_яч13_Указатель</t>
-  </si>
-  <si>
     <t>РУ6_яч13_БлокировочныйКлюч</t>
   </si>
   <si>
-    <t>РУ6_яч13_Ф-516яч13</t>
-  </si>
-  <si>
     <t>РУ6_яч15_Ключ_В6Ф-515</t>
   </si>
   <si>
@@ -595,18 +589,9 @@
     <t>РУ6_яч7_БлокировочныйКлюч</t>
   </si>
   <si>
-    <t>РУ6_яч15_Указатель</t>
-  </si>
-  <si>
     <t>РУ6_яч17_Ключ_В6Ф517</t>
   </si>
   <si>
-    <t>РУ6_яч17_Указатель</t>
-  </si>
-  <si>
-    <t>РУ6_яч7_Указатель</t>
-  </si>
-  <si>
     <t>РУ6_яч7_1СШ6кВ</t>
   </si>
   <si>
@@ -628,24 +613,12 @@
     <t>РУ6_яч19_Автомат_В6Ф-518</t>
   </si>
   <si>
-    <t>РУ6_яч19_Указатель</t>
-  </si>
-  <si>
-    <t>РУ6_яч21_Указатель</t>
-  </si>
-  <si>
     <t>РУ6_яч21_Плакат_Ф-514</t>
   </si>
   <si>
     <t>РУ6_яч21_Ф-514</t>
   </si>
   <si>
-    <t>РУ6_яч13_Ключ_В6Ф-615</t>
-  </si>
-  <si>
-    <t>РУ6_яч13_Плакат_В6Ф-615</t>
-  </si>
-  <si>
     <t>РУ6_яч7_ТН-1-6</t>
   </si>
   <si>
@@ -703,15 +676,6 @@
     <t>РУ6_яч15_Плакат_В5Ф-515</t>
   </si>
   <si>
-    <t>РУ6_яч13_В6Ф-615</t>
-  </si>
-  <si>
-    <t>РУ6_яч13_Тележка_В6Ф-615</t>
-  </si>
-  <si>
-    <t>РУ6_яч13_Автомат_В6Ф-615</t>
-  </si>
-  <si>
     <t>РУ6_ яч16_СВ6</t>
   </si>
   <si>
@@ -784,9 +748,6 @@
     <t>РУ6_яч1_Плакат_Автомат_В6ТСН-1</t>
   </si>
   <si>
-    <t>РУ6_яч1_Указатель_6кВ</t>
-  </si>
-  <si>
     <t>РУ6_яч1_Кабель_ТСН-1</t>
   </si>
   <si>
@@ -794,6 +755,33 @@
   </si>
   <si>
     <t>РУ6_яч1_Плакат_В6ТСН-1_Заземлено</t>
+  </si>
+  <si>
+    <t>РУ6_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Кабель_Ф_516</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Ф-516</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Ф-516_Переключатель</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Ф-516_Плакат_Заземлено</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Плакат_В6Ф-516</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Тележка_В6Ф-516</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Автомат_В6Ф-516</t>
+  </si>
+  <si>
+    <t>РУ6_яч13_Ключ_В6Ф-516</t>
   </si>
 </sst>
 </file>
@@ -803,7 +791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +878,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -917,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -945,6 +940,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1228,7 +1224,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45555</v>
+        <v>45643</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B135"/>
+  <dimension ref="B1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120:B135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,52 +1593,53 @@
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="20"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="20"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="20"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="20"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="20"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="20"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="20"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="20"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -1771,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1936,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>145</v>
@@ -1973,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>145</v>
@@ -2065,14 +2062,14 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>145</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="18" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
@@ -2083,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>150</v>
@@ -2123,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>157</v>
@@ -2139,7 +2136,7 @@
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>168</v>
@@ -2148,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>31</v>
@@ -2158,7 +2155,7 @@
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>169</v>
@@ -2167,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>31</v>
@@ -2194,14 +2191,14 @@
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="18" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -2212,7 +2209,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>150</v>
@@ -2329,7 +2326,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>149</v>
@@ -2369,7 +2366,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>150</v>
@@ -2389,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>168</v>
@@ -2398,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>31</v>
@@ -2409,7 +2406,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>169</v>
@@ -2418,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>31</v>
@@ -2429,7 +2426,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>160</v>
@@ -2446,7 +2443,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>157</v>
@@ -2500,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>168</v>
@@ -2509,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
@@ -2520,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>169</v>
@@ -2529,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>31</v>
@@ -2540,7 +2537,7 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>160</v>
@@ -2574,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>168</v>
@@ -2583,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>31</v>
@@ -2594,7 +2591,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>169</v>
@@ -2603,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>31</v>
@@ -2614,7 +2611,7 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>167</v>
@@ -2631,7 +2628,7 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>167</v>
@@ -2648,7 +2645,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>168</v>
@@ -2657,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>31</v>
@@ -2668,7 +2665,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>169</v>
@@ -2677,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>31</v>
@@ -2705,7 +2702,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>149</v>
@@ -2725,7 +2722,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>150</v>
@@ -2745,7 +2742,7 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>157</v>
@@ -2799,7 +2796,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>149</v>
@@ -2819,7 +2816,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>157</v>
@@ -2836,7 +2833,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>168</v>
@@ -2845,7 +2842,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>31</v>
@@ -2856,7 +2853,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>169</v>
@@ -2865,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -2910,7 +2907,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>168</v>
@@ -2919,7 +2916,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>31</v>
@@ -2930,7 +2927,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>169</v>
@@ -2939,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>31</v>
@@ -2949,8 +2946,8 @@
       <c r="A62" s="13">
         <v>58</v>
       </c>
-      <c r="C62" t="s">
-        <v>251</v>
+      <c r="C62" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>150</v>
@@ -2970,7 +2967,7 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>167</v>
@@ -2987,7 +2984,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>168</v>
@@ -2996,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>31</v>
@@ -3007,7 +3004,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>169</v>
@@ -3016,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>31</v>
@@ -3064,7 +3061,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>150</v>
@@ -3084,7 +3081,7 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>157</v>
@@ -3101,7 +3098,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>149</v>
@@ -3121,7 +3118,7 @@
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>157</v>
@@ -3138,7 +3135,7 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>149</v>
@@ -3158,7 +3155,7 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>157</v>
@@ -3175,7 +3172,7 @@
         <v>70</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>168</v>
@@ -3184,7 +3181,7 @@
         <v>9</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>31</v>
@@ -3195,7 +3192,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>169</v>
@@ -3204,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>31</v>
@@ -3215,7 +3212,7 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>160</v>
@@ -3232,7 +3229,7 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>157</v>
@@ -3249,7 +3246,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>168</v>
@@ -3258,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>31</v>
@@ -3269,7 +3266,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>169</v>
@@ -3278,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>31</v>
@@ -3289,10 +3286,13 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>75</v>
@@ -3306,7 +3306,7 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>167</v>
@@ -3323,7 +3323,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>168</v>
@@ -3332,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>31</v>
@@ -3343,7 +3343,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>169</v>
@@ -3352,7 +3352,7 @@
         <v>11</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>31</v>
@@ -3362,8 +3362,8 @@
       <c r="A84" s="13">
         <v>80</v>
       </c>
-      <c r="C84" t="s">
-        <v>180</v>
+      <c r="C84" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>173</v>
@@ -3380,10 +3380,13 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>149</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>87</v>
@@ -3397,10 +3400,13 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>150</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>142</v>
@@ -3414,7 +3420,7 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>157</v>
@@ -3430,8 +3436,8 @@
       <c r="A88" s="13">
         <v>84</v>
       </c>
-      <c r="C88" t="s">
-        <v>182</v>
+      <c r="C88" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>149</v>
@@ -3448,7 +3454,7 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>157</v>
@@ -3465,7 +3471,7 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>149</v>
@@ -3482,7 +3488,7 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>157</v>
@@ -3499,7 +3505,7 @@
         <v>88</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>168</v>
@@ -3508,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>31</v>
@@ -3519,7 +3525,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>169</v>
@@ -3528,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>31</v>
@@ -3539,7 +3545,7 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>160</v>
@@ -3556,7 +3562,7 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>157</v>
@@ -3573,7 +3579,7 @@
         <v>92</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>168</v>
@@ -3582,7 +3588,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>31</v>
@@ -3593,7 +3599,7 @@
         <v>93</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>169</v>
@@ -3602,7 +3608,7 @@
         <v>13</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>31</v>
@@ -3612,11 +3618,14 @@
       <c r="A98" s="13">
         <v>94</v>
       </c>
-      <c r="C98" t="s">
-        <v>188</v>
+      <c r="C98" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>75</v>
@@ -3630,7 +3639,7 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>167</v>
@@ -3647,7 +3656,7 @@
         <v>96</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>168</v>
@@ -3656,7 +3665,7 @@
         <v>14</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>31</v>
@@ -3667,7 +3676,7 @@
         <v>97</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>169</v>
@@ -3676,7 +3685,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>31</v>
@@ -3687,7 +3696,7 @@
         <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>173</v>
@@ -3704,7 +3713,7 @@
         <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>149</v>
@@ -3721,7 +3730,7 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>150</v>
@@ -3738,7 +3747,7 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>157</v>
@@ -3755,7 +3764,7 @@
         <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>149</v>
@@ -3772,7 +3781,7 @@
         <v>103</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>157</v>
@@ -3789,7 +3798,7 @@
         <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>149</v>
@@ -3806,7 +3815,7 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>157</v>
@@ -3823,7 +3832,7 @@
         <v>106</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>168</v>
@@ -3832,7 +3841,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>31</v>
@@ -3843,7 +3852,7 @@
         <v>107</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>169</v>
@@ -3852,7 +3861,7 @@
         <v>15</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>31</v>
@@ -3863,7 +3872,7 @@
         <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>160</v>
@@ -3880,7 +3889,7 @@
         <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>157</v>
@@ -3897,7 +3906,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>168</v>
@@ -3906,7 +3915,7 @@
         <v>16</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>31</v>
@@ -3917,7 +3926,7 @@
         <v>111</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>169</v>
@@ -3926,7 +3935,7 @@
         <v>16</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>31</v>
@@ -3937,10 +3946,13 @@
         <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>75</v>
@@ -3954,7 +3966,7 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>167</v>
@@ -3971,7 +3983,7 @@
         <v>114</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>168</v>
@@ -3980,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>31</v>
@@ -3991,7 +4003,7 @@
         <v>115</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>169</v>
@@ -4000,7 +4012,7 @@
         <v>17</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>31</v>
@@ -4011,7 +4023,7 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>173</v>
@@ -4028,7 +4040,7 @@
         <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>149</v>
@@ -4045,7 +4057,7 @@
         <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>150</v>
@@ -4062,7 +4074,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>157</v>
@@ -4079,7 +4091,7 @@
         <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>149</v>
@@ -4096,7 +4108,7 @@
         <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>157</v>
@@ -4113,7 +4125,7 @@
         <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>149</v>
@@ -4130,7 +4142,7 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>157</v>
@@ -4147,7 +4159,7 @@
         <v>124</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>168</v>
@@ -4156,7 +4168,7 @@
         <v>18</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>31</v>
@@ -4167,7 +4179,7 @@
         <v>125</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>169</v>
@@ -4176,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>31</v>
@@ -4187,7 +4199,7 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>160</v>
@@ -4204,7 +4216,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>157</v>
@@ -4221,7 +4233,7 @@
         <v>128</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>168</v>
@@ -4230,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>31</v>
@@ -4241,7 +4253,7 @@
         <v>129</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>169</v>
@@ -4250,7 +4262,7 @@
         <v>19</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>31</v>
@@ -4261,10 +4273,13 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>75</v>
@@ -4278,7 +4293,7 @@
         <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>167</v>
@@ -4295,7 +4310,7 @@
         <v>132</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>168</v>
@@ -4304,7 +4319,7 @@
         <v>20</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>31</v>
@@ -4315,7 +4330,7 @@
         <v>133</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D137" s="13" t="s">
         <v>169</v>
@@ -4324,7 +4339,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>31</v>
@@ -4335,7 +4350,7 @@
         <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>173</v>
@@ -4352,7 +4367,7 @@
         <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>149</v>
@@ -4369,7 +4384,7 @@
         <v>136</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>150</v>
@@ -4386,7 +4401,7 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>157</v>
@@ -4403,7 +4418,7 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>149</v>
@@ -4420,7 +4435,7 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>157</v>
@@ -4437,7 +4452,7 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>149</v>
@@ -4454,7 +4469,7 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>157</v>
@@ -4471,7 +4486,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>168</v>
@@ -4480,7 +4495,7 @@
         <v>21</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>31</v>
@@ -4491,7 +4506,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>169</v>
@@ -4500,7 +4515,7 @@
         <v>21</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>31</v>
@@ -4511,7 +4526,7 @@
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>160</v>
@@ -4528,7 +4543,7 @@
         <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D149" s="14" t="s">
         <v>157</v>
@@ -4545,7 +4560,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>168</v>
@@ -4554,7 +4569,7 @@
         <v>22</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>31</v>
@@ -4565,7 +4580,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>169</v>
@@ -4574,7 +4589,7 @@
         <v>22</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>31</v>
@@ -4585,10 +4600,13 @@
         <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>75</v>
@@ -4602,7 +4620,7 @@
         <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>167</v>
@@ -4619,7 +4637,7 @@
         <v>150</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>168</v>
@@ -4628,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>31</v>
@@ -4639,7 +4657,7 @@
         <v>151</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>169</v>
@@ -4648,7 +4666,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>31</v>
@@ -4659,7 +4677,7 @@
         <v>152</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>173</v>
@@ -4676,7 +4694,7 @@
         <v>153</v>
       </c>
       <c r="C157" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>149</v>
@@ -4693,7 +4711,7 @@
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>150</v>
@@ -4710,7 +4728,7 @@
         <v>155</v>
       </c>
       <c r="C159" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>157</v>
@@ -4727,7 +4745,7 @@
         <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>149</v>
@@ -4744,7 +4762,7 @@
         <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>157</v>
@@ -4761,7 +4779,7 @@
         <v>158</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>168</v>
@@ -4770,7 +4788,7 @@
         <v>24</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>31</v>
@@ -4781,7 +4799,7 @@
         <v>159</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>169</v>
@@ -4790,7 +4808,7 @@
         <v>24</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>31</v>
@@ -4801,7 +4819,7 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>160</v>
@@ -4818,7 +4836,7 @@
         <v>161</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D165" s="13" t="s">
         <v>168</v>
@@ -4827,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>31</v>
@@ -4838,7 +4856,7 @@
         <v>162</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D166" s="13" t="s">
         <v>169</v>
@@ -4847,7 +4865,7 @@
         <v>25</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>31</v>
@@ -4858,10 +4876,13 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>167</v>
+      </c>
+      <c r="E167">
+        <v>7</v>
       </c>
       <c r="F167" s="8" t="s">
         <v>75</v>
@@ -4875,7 +4896,7 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>167</v>
@@ -4892,7 +4913,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D169" s="13" t="s">
         <v>168</v>
@@ -4901,7 +4922,7 @@
         <v>26</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>31</v>
@@ -4912,7 +4933,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>169</v>
@@ -4921,7 +4942,7 @@
         <v>26</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G170" s="7" t="s">
         <v>31</v>
@@ -4932,7 +4953,7 @@
         <v>167</v>
       </c>
       <c r="C171" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>173</v>
@@ -4949,7 +4970,7 @@
         <v>168</v>
       </c>
       <c r="C172" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>149</v>
@@ -4966,7 +4987,7 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>150</v>
@@ -4983,7 +5004,7 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D174" s="14" t="s">
         <v>157</v>
